--- a/ApiAutoTest/automationApiTestCaseData.xlsx
+++ b/ApiAutoTest/automationApiTestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28635" windowHeight="10950"/>
+    <workbookView windowWidth="28635" windowHeight="11370"/>
   </bookViews>
   <sheets>
     <sheet name="automationApiTestCase" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
   <si>
     <t>Name</t>
   </si>
@@ -38,7 +38,7 @@
     <t>{"username": "change02", "password": "change@520","systemState":1}</t>
   </si>
   <si>
-    <t>http://www.beijingipo.com.cn/api/v1.0/sso/login</t>
+    <t>http://www.test.beijingipo.com.cn/api/v1.0/sso/login</t>
   </si>
   <si>
     <t>post</t>
@@ -50,52 +50,503 @@
     <t>登陆接口-密码错误</t>
   </si>
   <si>
-    <t>{"username": "change02", "password": "change@5","systemState":2}</t>
+    <t>{"username": "change02", "password": "change@5","systemState":1}</t>
   </si>
   <si>
-    <t>{"error": None, "message": "登录失败，错误的用户名和密码", "status": 500, "data": None}</t>
+    <t>{'success': False, 'statusCode': 2000, 'message': '用户名或密码错误', 'data': None}</t>
   </si>
   <si>
     <t>登陆接口-用户名错误</t>
   </si>
   <si>
-    <t>{"username": "chang02", "password": "change@520","systemState":3}</t>
+    <t>{"username": "chang02", "password": "change@520","systemState":1}</t>
   </si>
   <si>
-    <t>{"message": "登录失败，错误的用户名和密码", "error": None, "data": None, "status": 500}</t>
+    <t>{'success': False, 'statusCode': 2001, 'message': '用户名或密码错误', 'data': None}</t>
   </si>
   <si>
     <t>登陆接口-密码为空</t>
   </si>
   <si>
-    <t>{"username": "change02", "password": "","systemState":4}</t>
+    <t>{"username": "change02", "password": "","systemState":1}</t>
   </si>
   <si>
-    <t>{"message": "password 必须存在", "status": 500, "data": None, "error": [{"field": "password", "rule": "required", "msg": "password 必须存在"}]}</t>
+    <t>{'success': False, 'statusCode': 2002, 'message': '用户名或密码错误', 'data': None}</t>
   </si>
   <si>
     <t>登陆接口-用户名为空</t>
   </si>
   <si>
-    <t>{"username": "", "password": "change@520","systemState":5}</t>
+    <t>{"username": "", "password": "change@520","systemState":1}</t>
   </si>
   <si>
-    <t>{"message": "username 必须存在", "status": 500, "data": None, "error": [{"field": "password", "rule": "required", "msg": "username 必须存在"}]}</t>
+    <t>{'success': False, 'statusCode': 2003, 'message': '用户名或密码错误', 'data': None}</t>
   </si>
   <si>
     <t>登陆接口-密码为多个空格</t>
   </si>
   <si>
-    <t>{"username": "change02", "password": "  ","systemState":6}</t>
+    <t>{"username": "change02", "password": "  ","systemState":1}</t>
   </si>
   <si>
-    <t>{"error": None, "data": None, "status": 500, "message": "登录失败，错误的用户名和密码"}</t>
+    <t>{'success': False, 'statusCode': 2004, 'message': '用户名或密码错误', 'data': None}</t>
   </si>
   <si>
     <t>登陆接口-用户名为多个空格</t>
   </si>
   <si>
-    <t>{"username": "  ", "password": "change@520","systemState":7}</t>
+    <t>{"username": "  ", "password": "change@520","systemState":1}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 2005, 'message': '用户名或密码错误', 'data': None}</t>
+  </si>
+  <si>
+    <t>登陆接口-用户类型传输错误</t>
+  </si>
+  <si>
+    <t>{"username": "change02", "password": "change@520","systemState":7}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '系统选择参数有误', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-正常注册</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>http://www.test.beijingipo.com.cn/api/v1.0/sso/register</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 2000, 'message': '用户注册成功', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-用户名重复</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change02",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '用户名重复', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-企业名/统一社会信用代码为空</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '企业名/统一社会信用代码不能为空', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-姓名为空</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '姓名不能为空', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-密码前后不一致</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@521",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '密码前后不一致', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-手机号码为空</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '手机号码不为空', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-手机号码重复</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17300000000",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '手机号码重复', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-验证码输入错误</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '图片验证码输入错误', 'data': None}</t>
+  </si>
+  <si>
+    <t>注册接口-手机验证码输入错误</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "xxxx",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>注册接口-不勾选使用协议</t>
+  </si>
+  <si>
+    <t>{"agreement": false,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "ggew",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "2313123",
+"type": "2",
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{'success': False, 'statusCode': 3001, 'message': '请勾选使用协议', 'data': None}</t>
+  </si>
+  <si>
+    <t>忘记密码-正常修改</t>
+  </si>
+  <si>
+    <t>{"confirmPassword": "change@520",
+"imgCaptcha": "4y8g",
+"newPassword": "change@520",
+"phone": "17366666664",
+"smsCode": "123456",
+"username": "change02",}</t>
+  </si>
+  <si>
+    <t>http://www.test.beijingipo.com.cn/api/v1.0/sso/user/password/forget</t>
+  </si>
+  <si>
+    <t>{"success":True,"statusCode":1000,"message":"成功","data":None}</t>
+  </si>
+  <si>
+    <t>忘记密码-用户名不存在</t>
+  </si>
+  <si>
+    <t>{"confirmPassword": "change@520",
+"imgCaptcha": "4y8g",
+"newPassword": "change@520",
+"phone": "17366666664",
+"smsCode": "123456",
+"username": "change00",}</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2000,"message":"该用户不存在","data":None}</t>
+  </si>
+  <si>
+    <t>忘记密码-手机号码错误</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2000,"message":"您输入的绑定手机号码有误","data":None}</t>
+  </si>
+  <si>
+    <t>忘记密码-前后密码输入不一致</t>
+  </si>
+  <si>
+    <t>{"confirmPassword": "change@521",
+"imgCaptcha": "4y8g",
+"newPassword": "change@520",
+"phone": "17366666664",
+"smsCode": "123456",
+"username": "change02",}</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2000,"message":"新密码与确认新密码不一致","data":None}</t>
+  </si>
+  <si>
+    <t>账号申诉-正常申诉</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "28gn",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "123456",
+"type": "2",
+"upload": [0:{
+ "percent": 100,
+ "response": "&lt;!DOCTYPE html&gt;↵&lt;html lang="en"&gt;↵&lt;head&gt;↵&lt;meta charset="utf-8"&gt;↵&lt;title&gt;Error&lt;/title&gt;↵&lt;/head&gt;↵&lt;body&gt;↵&lt;pre&gt;Cannot POST /upload.do&lt;/pre&gt;↵&lt;/body&gt;↵&lt;/html&gt;↵",
+ "size": 22768,
+ "status": "error",
+ "type": "image/png",
+ "uid": "rc-upload-1569807212886-2",
+ "lastModified": 1567059010830,
+ "lastModifiedDate": "2019-08-29T06:10:10.830Z",
+ "name": "1.png",
+ "error":{
+  "method": "post",
+  "status": 404,
+  "url": "/upload.do",
+ },
+ originFileObj: {"uid": "rc-upload-1569807212886-2"}
+},],
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>账号申诉-使用重复的用户名</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "28gn",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "123456",
+"type": "2",
+"upload": [0:{
+ "percent": 100,
+ "response": "&lt;!DOCTYPE html&gt;↵&lt;html lang="en"&gt;↵&lt;head&gt;↵&lt;meta charset="utf-8"&gt;↵&lt;title&gt;Error&lt;/title&gt;↵&lt;/head&gt;↵&lt;body&gt;↵&lt;pre&gt;Cannot POST /upload.do&lt;/pre&gt;↵&lt;/body&gt;↵&lt;/html&gt;↵",
+ "size": 22768,
+ "status": "error",
+ "type": "image/png",
+ "uid": "rc-upload-1569807212886-2",
+ "lastModified": 1567059010830,
+ "lastModifiedDate": "2019-08-29T06:10:10.830Z",
+ "name": "1.png",
+ "error":{
+  "method": "post",
+  "status": 404,
+  "url": "/upload.do",
+ },
+ originFileObj: {"uid": "rc-upload-1569807212886-2"}
+},],
+"username": "change02",}</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2000,"message":"用户名已被使用","data":None}</t>
+  </si>
+  <si>
+    <t>账号申诉-简单密码</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "28gn",
+"organization": "攀钢集团有限公司",
+"password": "change",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "123456",
+"type": "2",
+"upload": [0:{
+ "percent": 100,
+ "response": "&lt;!DOCTYPE html&gt;↵&lt;html lang="en"&gt;↵&lt;head&gt;↵&lt;meta charset="utf-8"&gt;↵&lt;title&gt;Error&lt;/title&gt;↵&lt;/head&gt;↵&lt;body&gt;↵&lt;pre&gt;Cannot POST /upload.do&lt;/pre&gt;↵&lt;/body&gt;↵&lt;/html&gt;↵",
+ "size": 22768,
+ "status": "error",
+ "type": "image/png",
+ "uid": "rc-upload-1569807212886-2",
+ "lastModified": 1567059010830,
+ "lastModifiedDate": "2019-08-29T06:10:10.830Z",
+ "name": "1.png",
+ "error":{
+  "method": "post",
+  "status": 404,
+  "url": "/upload.do",
+ },
+ originFileObj: {"uid": "rc-upload-1569807212886-2"}
+},],
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>http://www.test.beijingipo.com.cn/api/v1.1/sso/register</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2001,"message":"需要包含特殊符号","data":None}</t>
+  </si>
+  <si>
+    <t>账号申诉-邮箱格式错误</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change",
+"imgCaptcha": "28gn",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17333333333",
+"realName": "段向东",
+"smsCode": "123456",
+"type": "2",
+"upload": [0:{
+ "percent": 100,
+ "response": "&lt;!DOCTYPE html&gt;↵&lt;html lang="en"&gt;↵&lt;head&gt;↵&lt;meta charset="utf-8"&gt;↵&lt;title&gt;Error&lt;/title&gt;↵&lt;/head&gt;↵&lt;body&gt;↵&lt;pre&gt;Cannot POST /upload.do&lt;/pre&gt;↵&lt;/body&gt;↵&lt;/html&gt;↵",
+ "size": 22768,
+ "status": "error",
+ "type": "image/png",
+ "uid": "rc-upload-1569807212886-2",
+ "lastModified": 1567059010830,
+ "lastModifiedDate": "2019-08-29T06:10:10.830Z",
+ "name": "1.png",
+ "error":{
+  "method": "post",
+  "status": 404,
+  "url": "/upload.do",
+ },
+ originFileObj: {"uid": "rc-upload-1569807212886-2"}
+},],
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2001,"message":"请输入正确格式的邮箱地址","data":None}</t>
+  </si>
+  <si>
+    <t>账号申诉-手机号码重复</t>
+  </si>
+  <si>
+    <t>{"agreement": true,
+"confirmPassword": "change@520",
+"creditCode": "915104002043513393",
+"email": "change@qq.com",
+"imgCaptcha": "28gn",
+"organization": "攀钢集团有限公司",
+"password": "change@520",
+"phone": "17366666664",
+"realName": "段向东",
+"smsCode": "123456",
+"type": "2",
+"upload": [0:{
+ "percent": 100,
+ "response": "&lt;!DOCTYPE html&gt;↵&lt;html lang="en"&gt;↵&lt;head&gt;↵&lt;meta charset="utf-8"&gt;↵&lt;title&gt;Error&lt;/title&gt;↵&lt;/head&gt;↵&lt;body&gt;↵&lt;pre&gt;Cannot POST /upload.do&lt;/pre&gt;↵&lt;/body&gt;↵&lt;/html&gt;↵",
+ "size": 22768,
+ "status": "error",
+ "type": "image/png",
+ "uid": "rc-upload-1569807212886-2",
+ "lastModified": 1567059010830,
+ "lastModifiedDate": "2019-08-29T06:10:10.830Z",
+ "name": "1.png",
+ "error":{
+  "method": "post",
+  "status": 404,
+  "url": "/upload.do",
+ },
+ originFileObj: {"uid": "rc-upload-1569807212886-2"}
+},],
+"username": "change001",}</t>
+  </si>
+  <si>
+    <t>{"success":False,"statusCode":2001,"message":"手机号码重复","data":None}</t>
+  </si>
+  <si>
+    <t>账号申诉-验证码输入错误</t>
   </si>
   <si>
     <t>个人中心-修改账户信息-正常修改</t>
@@ -104,10 +555,7 @@
     <t>{"code": "91110108551385082A","creditCode": "91110108551385082Q","email": "change@qq.com","organization": "小小米科技有限责任公司2","realName": "小雷布斯"}</t>
   </si>
   <si>
-    <t>http://www.beijingipo.com.cn/api/v1.0/sso/user/update</t>
-  </si>
-  <si>
-    <t>{"success":True,"statusCode":1000,"message":"成功","data":None}</t>
+    <t>http://www.test.beijingipo.com.cn/api/v1.0/sso/user/update</t>
   </si>
   <si>
     <t>修改账户信息-公司名已存在</t>
@@ -124,12 +572,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +609,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -175,53 +631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,15 +656,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,9 +730,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,14 +748,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,31 +805,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,13 +859,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,43 +889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,7 +919,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,13 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,31 +973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,17 +1051,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,24 +1099,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -669,6 +1116,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -678,16 +1134,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -698,10 +1154,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,16 +1166,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,119 +1184,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -884,6 +1340,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -914,13 +1373,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1285,10 +1744,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1142"/>
+  <dimension ref="A1:E1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1369,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
@@ -1386,7 +1845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
@@ -1434,18 +1893,18 @@
         <v>8</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>8</v>
@@ -1454,552 +1913,762 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="25.5" customHeight="1" spans="1:5">
-      <c r="A10" s="12" t="s">
+    <row r="10" customFormat="1" ht="162" spans="1:5">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="162" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="52.5" customHeight="1" spans="1:5">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" s="2" customFormat="1" spans="1:5">
-      <c r="A30" s="8"/>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="162" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="162" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="162" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="162" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="162" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="162" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="162" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="162" spans="1:5">
+      <c r="A19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="81" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" ht="81" spans="1:5">
+      <c r="A21" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="81" spans="1:5">
+      <c r="A22" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="81" spans="1:5">
+      <c r="A23" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="78" customHeight="1" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="77" customHeight="1" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="95" customHeight="1" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="95" customHeight="1" spans="1:5">
+      <c r="A27" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="95" customHeight="1" spans="1:5">
+      <c r="A28" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="95" customHeight="1" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:5">
+      <c r="A30" s="12"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="15"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:5">
       <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:5">
-      <c r="A32" s="8"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:5">
+    <row r="32" customFormat="1" spans="1:5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" customFormat="1" spans="1:5">
       <c r="A33" s="12"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="21"/>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:5">
+      <c r="B33" s="9"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A34" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1" spans="1:5">
+      <c r="A35" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="12"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:5">
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="12"/>
-      <c r="B37" s="20"/>
-      <c r="C37"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:5">
-      <c r="A38" s="8"/>
-      <c r="B38" s="20"/>
-      <c r="C38"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:5">
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="12"/>
-      <c r="B39" s="20"/>
-      <c r="C39"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:5">
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="12"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:5">
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="12"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:5">
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:5">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="12"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:5">
+      <c r="B43" s="13"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="12"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:5">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="13"/>
       <c r="E46" s="14"/>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:5">
-      <c r="A47" s="8"/>
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:5">
-      <c r="A48" s="12"/>
-      <c r="B48" s="20"/>
-      <c r="C48"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="52.5" customHeight="1" spans="1:5">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="13"/>
-      <c r="E49" s="14"/>
+      <c r="E49" s="11"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="13"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" ht="40.5" customHeight="1" spans="1:5">
+      <c r="E50" s="11"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="12"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="19"/>
       <c r="D51" s="13"/>
-      <c r="E51" s="22"/>
+      <c r="E51" s="11"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="12"/>
-      <c r="B52" s="13"/>
-      <c r="C52"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="13"/>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:5">
-      <c r="A53" s="8"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:5">
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="1:5">
+      <c r="A53" s="12"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="12"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="21"/>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:5">
-      <c r="A55" s="12"/>
-      <c r="B55" s="20"/>
-      <c r="C55"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:5">
+      <c r="B54" s="9"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="1:5">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="12"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="21"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14"/>
     </row>
     <row r="57" s="3" customFormat="1" spans="1:5">
-      <c r="A57" s="12"/>
-      <c r="B57" s="20"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" s="3" customFormat="1" spans="1:5">
       <c r="A58" s="12"/>
-      <c r="B58" s="20"/>
-      <c r="C58"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="22"/>
     </row>
     <row r="59" s="3" customFormat="1" spans="1:5">
       <c r="A59" s="12"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" s="2" customFormat="1" spans="1:5">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:5">
+      <c r="A60" s="12"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:5">
       <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22"/>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:5">
       <c r="A62" s="12"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="21"/>
       <c r="C62"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="12"/>
-      <c r="B63" s="13"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="22"/>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:5">
+      <c r="A63" s="8"/>
+      <c r="B63" s="21"/>
       <c r="C63"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-    </row>
-    <row r="64" s="2" customFormat="1" spans="1:5">
-      <c r="A64" s="8"/>
-      <c r="B64" s="13"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="22"/>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:5">
+      <c r="A64" s="12"/>
+      <c r="B64" s="21"/>
       <c r="C64"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11"/>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="D64" s="21"/>
+      <c r="E64" s="22"/>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:5">
       <c r="A65" s="12"/>
-      <c r="B65" s="13"/>
-      <c r="C65"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-    </row>
-    <row r="66" s="2" customFormat="1" spans="1:5">
-      <c r="A66" s="8"/>
-      <c r="B66" s="13"/>
-      <c r="C66"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="14"/>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="22"/>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:5">
+      <c r="A66" s="12"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="22"/>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:5">
       <c r="A67" s="12"/>
-      <c r="B67" s="13"/>
-      <c r="C67"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" s="2" customFormat="1" spans="1:5">
-      <c r="A68" s="8"/>
-      <c r="B68" s="13"/>
-      <c r="C68"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="11"/>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="22"/>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:5">
+      <c r="A68" s="12"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="22"/>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:5">
       <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:5">
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" s="2" customFormat="1" spans="1:5">
       <c r="A70" s="8"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="21"/>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:5">
+      <c r="B70" s="9"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="11"/>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="12"/>
-      <c r="B71" s="20"/>
-      <c r="C71"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="21"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" s="3" customFormat="1" spans="1:5">
-      <c r="A72" s="12"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="22"/>
     </row>
     <row r="73" s="3" customFormat="1" spans="1:5">
       <c r="A73" s="12"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="21"/>
-    </row>
-    <row r="74" s="3" customFormat="1" spans="1:5">
+      <c r="B73" s="21"/>
+      <c r="C73"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="12"/>
-      <c r="B74" s="20"/>
+      <c r="B74" s="13"/>
       <c r="C74"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="21"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:5">
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="12"/>
-      <c r="B75" s="20"/>
+      <c r="B75" s="13"/>
       <c r="C75"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:5">
-      <c r="A76" s="8"/>
-      <c r="B76" s="20"/>
-      <c r="C76"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:5">
+      <c r="D75" s="13"/>
+      <c r="E75" s="22"/>
+    </row>
+    <row r="76" ht="40.5" customHeight="1" spans="1:5">
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="23"/>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="12"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="21"/>
+      <c r="B77" s="13"/>
+      <c r="C77"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" s="3" customFormat="1" spans="1:5">
-      <c r="A78" s="12"/>
-      <c r="B78" s="20"/>
-      <c r="C78"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="21"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="22"/>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:5">
       <c r="A79" s="12"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="22"/>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:5">
       <c r="A80" s="12"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="22"/>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:5">
       <c r="A81" s="12"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="22"/>
     </row>
     <row r="82" s="3" customFormat="1" spans="1:5">
       <c r="A82" s="12"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="21"/>
-    </row>
-    <row r="83" s="2" customFormat="1" spans="1:5">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:5">
+      <c r="A83" s="12"/>
+      <c r="B83" s="21"/>
       <c r="C83"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="11"/>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="D83" s="21"/>
+      <c r="E83" s="22"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:5">
       <c r="A84" s="12"/>
-      <c r="B84" s="13"/>
-      <c r="C84"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="12"/>
-      <c r="B85" s="13"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="22"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:5">
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
       <c r="C85"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="11"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="12"/>
       <c r="B86" s="13"/>
-      <c r="C86"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="13"/>
       <c r="E86" s="14"/>
     </row>
@@ -2010,272 +2679,272 @@
       <c r="D87" s="13"/>
       <c r="E87" s="14"/>
     </row>
-    <row r="88" s="3" customFormat="1" spans="1:5">
-      <c r="A88" s="8"/>
-      <c r="B88" s="20"/>
+    <row r="88" spans="1:5">
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
       <c r="C88"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="21"/>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:5">
-      <c r="A89" s="12"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" s="2" customFormat="1" spans="1:5">
+      <c r="A89" s="8"/>
+      <c r="B89" s="13"/>
       <c r="C89"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="21"/>
-    </row>
-    <row r="90" s="3" customFormat="1" spans="1:5">
+      <c r="D89" s="9"/>
+      <c r="E89" s="11"/>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
       <c r="C90"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="21"/>
-    </row>
-    <row r="91" s="3" customFormat="1" spans="1:5">
-      <c r="A91" s="12"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" s="2" customFormat="1" spans="1:5">
+      <c r="A91" s="8"/>
+      <c r="B91" s="13"/>
       <c r="C91"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="21"/>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:5">
+      <c r="D91" s="9"/>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
       <c r="C92"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="21"/>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:5">
-      <c r="A93" s="12"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" s="2" customFormat="1" spans="1:5">
+      <c r="A93" s="8"/>
+      <c r="B93" s="13"/>
       <c r="C93"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="21"/>
-    </row>
-    <row r="94" s="2" customFormat="1" spans="1:5">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="11"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
       <c r="C94"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="11"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
-      <c r="C95"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-    </row>
-    <row r="96" s="2" customFormat="1" spans="1:5">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:5">
+      <c r="A95" s="8"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="22"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:5">
+      <c r="A96" s="12"/>
+      <c r="B96" s="21"/>
       <c r="C96"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="11"/>
-    </row>
-    <row r="97" s="2" customFormat="1" spans="1:5">
-      <c r="A97" s="8"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="11"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="D96" s="21"/>
+      <c r="E96" s="22"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:5">
+      <c r="A97" s="12"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="22"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:5">
       <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="14"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="B98" s="21"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="22"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:5">
       <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="11"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="B99" s="21"/>
+      <c r="C99"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="22"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:5">
       <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="14"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="14"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="B100" s="21"/>
+      <c r="C100"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="22"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:5">
+      <c r="A101" s="8"/>
+      <c r="B101" s="21"/>
+      <c r="C101"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="22"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:5">
       <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="14"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="B102" s="21"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="22"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:5">
       <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="14"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="B103" s="21"/>
+      <c r="C103"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="22"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:5">
       <c r="A104" s="12"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="14"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="B104" s="21"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:5">
       <c r="A105" s="12"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="14"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="B105" s="21"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="22"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:5">
       <c r="A106" s="12"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="14"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="B106" s="21"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="22"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:5">
       <c r="A107" s="12"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="14"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="B107" s="21"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="1:5">
       <c r="A108" s="8"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="14"/>
+      <c r="B108" s="9"/>
+      <c r="C108"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="12"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
+      <c r="C109"/>
       <c r="D109" s="13"/>
       <c r="E109" s="14"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="12"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
+      <c r="C110"/>
       <c r="D110" s="13"/>
       <c r="E110" s="14"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="12"/>
       <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
+      <c r="C111"/>
       <c r="D111" s="13"/>
       <c r="E111" s="14"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="12"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
+      <c r="C112"/>
       <c r="D112" s="13"/>
       <c r="E112" s="14"/>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="12"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="14"/>
-    </row>
-    <row r="114" spans="1:5">
+    <row r="113" s="3" customFormat="1" spans="1:5">
+      <c r="A113" s="8"/>
+      <c r="B113" s="21"/>
+      <c r="C113"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" s="3" customFormat="1" spans="1:5">
       <c r="A114" s="12"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="14"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="C114"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" s="3" customFormat="1" spans="1:5">
       <c r="A115" s="12"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="14"/>
-    </row>
-    <row r="116" ht="28.5" customHeight="1" spans="1:5">
-      <c r="A116" s="8"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="14"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="C115"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="22"/>
+    </row>
+    <row r="116" s="3" customFormat="1" spans="1:5">
+      <c r="A116" s="12"/>
+      <c r="C116"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="22"/>
+    </row>
+    <row r="117" s="3" customFormat="1" spans="1:5">
       <c r="A117" s="12"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="14"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="C117"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" s="3" customFormat="1" spans="1:5">
       <c r="A118" s="12"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="25"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="12"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14"/>
+      <c r="C118"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="22"/>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:5">
+      <c r="A119" s="8"/>
+      <c r="B119" s="9"/>
+      <c r="C119"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="12"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="24"/>
+      <c r="B120" s="13"/>
+      <c r="C120"/>
+      <c r="D120" s="13"/>
       <c r="E120" s="14"/>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="12"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="14"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="12"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="14"/>
+    <row r="121" s="2" customFormat="1" spans="1:5">
+      <c r="A121" s="8"/>
+      <c r="B121" s="9"/>
+      <c r="C121"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="11"/>
+    </row>
+    <row r="122" s="2" customFormat="1" spans="1:5">
+      <c r="A122" s="8"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="12"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="24"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="13"/>
       <c r="E123" s="14"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="12"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="24"/>
-      <c r="E124" s="14"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="12"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="24"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
       <c r="E125" s="14"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="12"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="23"/>
-      <c r="D126" s="24"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="13"/>
       <c r="E126" s="14"/>
     </row>
     <row r="127" spans="1:5">
@@ -2293,164 +2962,164 @@
       <c r="E128" s="14"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="8"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
       <c r="C129" s="13"/>
       <c r="D129" s="13"/>
-      <c r="E129" s="25"/>
+      <c r="E129" s="14"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="12"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="13"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="17"/>
       <c r="D130" s="13"/>
       <c r="E130" s="14"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="12"/>
-      <c r="B131" s="24"/>
+      <c r="B131" s="13"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
       <c r="E131" s="14"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="12"/>
-      <c r="B132" s="24"/>
+      <c r="B132" s="13"/>
       <c r="C132" s="13"/>
       <c r="D132" s="13"/>
-      <c r="E132" s="25"/>
+      <c r="E132" s="14"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="12"/>
+      <c r="A133" s="8"/>
       <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="24"/>
       <c r="D133" s="13"/>
       <c r="E133" s="14"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="12"/>
-      <c r="B134" s="24"/>
+      <c r="B134" s="13"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
-      <c r="E134" s="25"/>
+      <c r="E134" s="14"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="12"/>
-      <c r="B135" s="24"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
-      <c r="E135" s="25"/>
+      <c r="E135" s="14"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="12"/>
-      <c r="B136" s="28"/>
-      <c r="C136"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
       <c r="D136" s="13"/>
-      <c r="E136" s="25"/>
-    </row>
-    <row r="137" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A137" s="8"/>
+      <c r="E136" s="14"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="12"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
       <c r="D137" s="13"/>
       <c r="E137" s="14"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="8"/>
-      <c r="B138" s="24"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="13"/>
       <c r="D138" s="13"/>
-      <c r="E138" s="25"/>
+      <c r="E138" s="14"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="12"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="23"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="13"/>
       <c r="D139" s="13"/>
-      <c r="E139" s="25"/>
+      <c r="E139" s="14"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="12"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="23"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="13"/>
       <c r="D140" s="13"/>
-      <c r="E140" s="25"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="12"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="23"/>
+      <c r="E140" s="14"/>
+    </row>
+    <row r="141" ht="28.5" customHeight="1" spans="1:5">
+      <c r="A141" s="8"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="24"/>
       <c r="D141" s="13"/>
-      <c r="E141" s="25"/>
+      <c r="E141" s="14"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="12"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="25"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="14"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="8"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="14"/>
-    </row>
-    <row r="144" ht="33" customHeight="1" spans="1:5">
-      <c r="A144" s="8"/>
-      <c r="B144" s="13"/>
-      <c r="C144"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="26"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="12"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="13"/>
       <c r="D144" s="13"/>
-      <c r="E144" s="25"/>
+      <c r="E144" s="14"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="8"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="27"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="25"/>
       <c r="E145" s="14"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="12"/>
-      <c r="B146" s="13"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="14"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="12"/>
-      <c r="B147" s="13"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
+      <c r="D147" s="25"/>
       <c r="E147" s="14"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="12"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="25"/>
       <c r="E148" s="14"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="12"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="28"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="14"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="12"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="25"/>
       <c r="E150" s="14"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="12"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="25"/>
       <c r="E151" s="14"/>
     </row>
     <row r="152" spans="1:5">
@@ -2469,31 +3138,31 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="8"/>
-      <c r="B154" s="13"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="13"/>
       <c r="D154" s="13"/>
-      <c r="E154" s="14"/>
+      <c r="E154" s="26"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="12"/>
-      <c r="B155" s="13"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="13"/>
       <c r="D155" s="13"/>
       <c r="E155" s="14"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="12"/>
-      <c r="B156" s="13"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="13"/>
       <c r="D156" s="13"/>
       <c r="E156" s="14"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="12"/>
-      <c r="B157" s="13"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="13"/>
       <c r="D157" s="13"/>
-      <c r="E157" s="14"/>
+      <c r="E157" s="26"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="12"/>
@@ -2504,27 +3173,27 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="12"/>
-      <c r="B159" s="13"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="13"/>
       <c r="D159" s="13"/>
-      <c r="E159" s="14"/>
+      <c r="E159" s="26"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="12"/>
-      <c r="B160" s="13"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="13"/>
       <c r="D160" s="13"/>
-      <c r="E160" s="14"/>
+      <c r="E160" s="26"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="12"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
+      <c r="B161" s="29"/>
+      <c r="C161"/>
       <c r="D161" s="13"/>
-      <c r="E161" s="14"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="12"/>
+      <c r="E161" s="26"/>
+    </row>
+    <row r="162" ht="24.75" customHeight="1" spans="1:5">
+      <c r="A162" s="8"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
       <c r="D162" s="13"/>
@@ -2532,55 +3201,55 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="8"/>
-      <c r="B163" s="13"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="13"/>
       <c r="D163" s="13"/>
-      <c r="E163" s="14"/>
+      <c r="E163" s="26"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="12"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="24"/>
       <c r="D164" s="13"/>
-      <c r="E164" s="14"/>
+      <c r="E164" s="26"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="12"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="24"/>
       <c r="D165" s="13"/>
-      <c r="E165" s="14"/>
+      <c r="E165" s="26"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="12"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="24"/>
       <c r="D166" s="13"/>
-      <c r="E166" s="14"/>
+      <c r="E166" s="26"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="12"/>
-      <c r="B167" s="13"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="13"/>
       <c r="D167" s="13"/>
-      <c r="E167" s="14"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="12"/>
+      <c r="A168" s="8"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
       <c r="D168" s="13"/>
       <c r="E168" s="14"/>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" ht="33" customHeight="1" spans="1:5">
       <c r="A169" s="8"/>
       <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
+      <c r="C169"/>
       <c r="D169" s="13"/>
-      <c r="E169" s="14"/>
+      <c r="E169" s="26"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="12"/>
+      <c r="A170" s="8"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
       <c r="D170" s="13"/>
@@ -2643,7 +3312,7 @@
       <c r="E178" s="14"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="12"/>
+      <c r="A179" s="8"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
       <c r="D179" s="13"/>
@@ -2706,7 +3375,7 @@
       <c r="E187" s="14"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="12"/>
+      <c r="A188" s="8"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
       <c r="D188" s="13"/>
@@ -2748,7 +3417,7 @@
       <c r="E193" s="14"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="12"/>
+      <c r="A194" s="8"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
       <c r="D194" s="13"/>
@@ -2908,116 +3577,116 @@
       <c r="D216" s="13"/>
       <c r="E216" s="14"/>
     </row>
-    <row r="217" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A217" s="29"/>
+    <row r="217" spans="1:5">
+      <c r="A217" s="12"/>
       <c r="B217" s="13"/>
-      <c r="C217" s="10"/>
-      <c r="D217" s="20"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
       <c r="E217" s="14"/>
     </row>
-    <row r="218" ht="30" customHeight="1" spans="1:5">
-      <c r="A218" s="30"/>
+    <row r="218" spans="1:5">
+      <c r="A218" s="12"/>
       <c r="B218" s="13"/>
-      <c r="C218" s="10"/>
-      <c r="D218" s="20"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
       <c r="E218" s="14"/>
     </row>
-    <row r="219" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A219" s="30"/>
+    <row r="219" spans="1:5">
+      <c r="A219" s="12"/>
       <c r="B219" s="13"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="20"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
       <c r="E219" s="14"/>
     </row>
-    <row r="220" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A220" s="30"/>
+    <row r="220" spans="1:5">
+      <c r="A220" s="12"/>
       <c r="B220" s="13"/>
-      <c r="C220" s="10"/>
-      <c r="D220" s="20"/>
+      <c r="C220" s="13"/>
+      <c r="D220" s="13"/>
       <c r="E220" s="14"/>
     </row>
-    <row r="221" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A221" s="30"/>
+    <row r="221" spans="1:5">
+      <c r="A221" s="12"/>
       <c r="B221" s="13"/>
-      <c r="C221" s="10"/>
-      <c r="D221" s="20"/>
+      <c r="C221" s="13"/>
+      <c r="D221" s="13"/>
       <c r="E221" s="14"/>
     </row>
-    <row r="222" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A222" s="30"/>
+    <row r="222" spans="1:5">
+      <c r="A222" s="12"/>
       <c r="B222" s="13"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="20"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
       <c r="E222" s="14"/>
     </row>
-    <row r="223" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A223" s="30"/>
+    <row r="223" spans="1:5">
+      <c r="A223" s="12"/>
       <c r="B223" s="13"/>
-      <c r="C223" s="10"/>
-      <c r="D223" s="20"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
       <c r="E223" s="14"/>
     </row>
-    <row r="224" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A224" s="30"/>
+    <row r="224" spans="1:5">
+      <c r="A224" s="12"/>
       <c r="B224" s="13"/>
-      <c r="C224" s="10"/>
-      <c r="D224" s="20"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
       <c r="E224" s="14"/>
     </row>
-    <row r="225" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A225" s="30"/>
+    <row r="225" spans="1:5">
+      <c r="A225" s="12"/>
       <c r="B225" s="13"/>
-      <c r="C225" s="10"/>
-      <c r="D225" s="20"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
       <c r="E225" s="14"/>
     </row>
-    <row r="226" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A226" s="30"/>
+    <row r="226" spans="1:5">
+      <c r="A226" s="12"/>
       <c r="B226" s="13"/>
-      <c r="C226" s="10"/>
-      <c r="D226" s="20"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
       <c r="E226" s="14"/>
     </row>
-    <row r="227" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A227" s="30"/>
+    <row r="227" spans="1:5">
+      <c r="A227" s="12"/>
       <c r="B227" s="13"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="20"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
       <c r="E227" s="14"/>
     </row>
-    <row r="228" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A228" s="30"/>
+    <row r="228" spans="1:5">
+      <c r="A228" s="12"/>
       <c r="B228" s="13"/>
-      <c r="C228" s="10"/>
-      <c r="D228" s="20"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
       <c r="E228" s="14"/>
     </row>
-    <row r="229" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A229" s="30"/>
+    <row r="229" spans="1:5">
+      <c r="A229" s="12"/>
       <c r="B229" s="13"/>
-      <c r="C229" s="10"/>
-      <c r="D229" s="20"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
       <c r="E229" s="14"/>
     </row>
-    <row r="230" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A230" s="30"/>
+    <row r="230" spans="1:5">
+      <c r="A230" s="12"/>
       <c r="B230" s="13"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="20"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
       <c r="E230" s="14"/>
     </row>
-    <row r="231" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A231" s="30"/>
+    <row r="231" spans="1:5">
+      <c r="A231" s="12"/>
       <c r="B231" s="13"/>
-      <c r="C231" s="10"/>
-      <c r="D231" s="20"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
       <c r="E231" s="14"/>
     </row>
-    <row r="232" ht="21.75" customHeight="1" spans="1:5">
-      <c r="A232" s="31"/>
+    <row r="232" spans="1:5">
+      <c r="A232" s="12"/>
       <c r="B232" s="13"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="20"/>
+      <c r="C232" s="13"/>
+      <c r="D232" s="13"/>
       <c r="E232" s="14"/>
     </row>
     <row r="233" spans="1:5">
@@ -3042,403 +3711,403 @@
       <c r="E235" s="14"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="32"/>
+      <c r="A236" s="12"/>
       <c r="B236" s="13"/>
       <c r="C236" s="13"/>
       <c r="D236" s="13"/>
       <c r="E236" s="14"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="33"/>
+      <c r="A237" s="12"/>
       <c r="B237" s="13"/>
-      <c r="C237" s="23"/>
+      <c r="C237" s="13"/>
       <c r="D237" s="13"/>
-      <c r="E237" s="21"/>
+      <c r="E237" s="14"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="33"/>
+      <c r="A238" s="12"/>
       <c r="B238" s="13"/>
-      <c r="C238" s="23"/>
+      <c r="C238" s="13"/>
       <c r="D238" s="13"/>
-      <c r="E238" s="21"/>
+      <c r="E238" s="14"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="33"/>
+      <c r="A239" s="12"/>
       <c r="B239" s="13"/>
-      <c r="C239" s="23"/>
+      <c r="C239" s="13"/>
       <c r="D239" s="13"/>
       <c r="E239" s="14"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="33"/>
+      <c r="A240" s="12"/>
       <c r="B240" s="13"/>
-      <c r="C240" s="23"/>
+      <c r="C240" s="13"/>
       <c r="D240" s="13"/>
-      <c r="E240" s="21"/>
+      <c r="E240" s="14"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="33"/>
+      <c r="A241" s="12"/>
       <c r="B241" s="13"/>
-      <c r="C241" s="23"/>
+      <c r="C241" s="13"/>
       <c r="D241" s="13"/>
-      <c r="E241" s="21"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="33"/>
+      <c r="E241" s="14"/>
+    </row>
+    <row r="242" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A242" s="30"/>
       <c r="B242" s="13"/>
-      <c r="C242" s="23"/>
-      <c r="D242" s="13"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="21"/>
       <c r="E242" s="14"/>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="33"/>
+    <row r="243" ht="30" customHeight="1" spans="1:5">
+      <c r="A243" s="31"/>
       <c r="B243" s="13"/>
-      <c r="C243" s="23"/>
-      <c r="D243" s="13"/>
-      <c r="E243" s="34"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="33"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="14"/>
+    </row>
+    <row r="244" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A244" s="31"/>
       <c r="B244" s="13"/>
-      <c r="C244" s="23"/>
-      <c r="D244" s="13"/>
-      <c r="E244" s="21"/>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="33"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="14"/>
+    </row>
+    <row r="245" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A245" s="31"/>
       <c r="B245" s="13"/>
-      <c r="C245" s="23"/>
-      <c r="D245" s="13"/>
-      <c r="E245" s="21"/>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="33"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="14"/>
+    </row>
+    <row r="246" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A246" s="31"/>
       <c r="B246" s="13"/>
-      <c r="C246" s="23"/>
-      <c r="D246" s="13"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="21"/>
       <c r="E246" s="14"/>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="33"/>
+    <row r="247" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A247" s="31"/>
       <c r="B247" s="13"/>
-      <c r="C247" s="23"/>
-      <c r="D247" s="13"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="21"/>
       <c r="E247" s="14"/>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="33"/>
+    <row r="248" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A248" s="31"/>
       <c r="B248" s="13"/>
-      <c r="C248" s="23"/>
-      <c r="D248" s="13"/>
-      <c r="E248" s="21"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="33"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="14"/>
+    </row>
+    <row r="249" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A249" s="31"/>
       <c r="B249" s="13"/>
-      <c r="C249" s="23"/>
-      <c r="D249" s="13"/>
-      <c r="E249" s="21"/>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="33"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="14"/>
+    </row>
+    <row r="250" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A250" s="31"/>
       <c r="B250" s="13"/>
-      <c r="C250" s="23"/>
-      <c r="D250" s="13"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="21"/>
       <c r="E250" s="14"/>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="33"/>
+    <row r="251" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A251" s="31"/>
       <c r="B251" s="13"/>
-      <c r="C251" s="23"/>
-      <c r="D251" s="13"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="21"/>
       <c r="E251" s="14"/>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="33"/>
+    <row r="252" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A252" s="31"/>
       <c r="B252" s="13"/>
-      <c r="C252" s="23"/>
-      <c r="D252" s="13"/>
-      <c r="E252" s="21"/>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="33"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="14"/>
+    </row>
+    <row r="253" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A253" s="31"/>
       <c r="B253" s="13"/>
-      <c r="C253" s="23"/>
-      <c r="D253" s="13"/>
-      <c r="E253" s="21"/>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="33"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="14"/>
+    </row>
+    <row r="254" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A254" s="31"/>
       <c r="B254" s="13"/>
-      <c r="C254" s="23"/>
-      <c r="D254" s="13"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="21"/>
       <c r="E254" s="14"/>
     </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="33"/>
+    <row r="255" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A255" s="31"/>
       <c r="B255" s="13"/>
-      <c r="C255" s="23"/>
-      <c r="D255" s="13"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="21"/>
       <c r="E255" s="14"/>
     </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="32"/>
+    <row r="256" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A256" s="31"/>
       <c r="B256" s="13"/>
-      <c r="C256" s="23"/>
-      <c r="D256" s="13"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="21"/>
       <c r="E256" s="14"/>
     </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="33"/>
+    <row r="257" ht="21.75" customHeight="1" spans="1:5">
+      <c r="A257" s="32"/>
       <c r="B257" s="13"/>
-      <c r="C257" s="23"/>
-      <c r="D257" s="13"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="21"/>
       <c r="E257" s="14"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="33"/>
+      <c r="A258" s="12"/>
       <c r="B258" s="13"/>
-      <c r="C258" s="23"/>
+      <c r="C258" s="13"/>
       <c r="D258" s="13"/>
-      <c r="E258" s="21"/>
+      <c r="E258" s="14"/>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="33"/>
+      <c r="A259" s="12"/>
       <c r="B259" s="13"/>
-      <c r="C259" s="23"/>
+      <c r="C259" s="13"/>
       <c r="D259" s="13"/>
-      <c r="E259" s="21"/>
+      <c r="E259" s="14"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="33"/>
+      <c r="A260" s="12"/>
       <c r="B260" s="13"/>
-      <c r="C260" s="23"/>
+      <c r="C260" s="13"/>
       <c r="D260" s="13"/>
-      <c r="E260" s="21"/>
+      <c r="E260" s="14"/>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="33"/>
       <c r="B261" s="13"/>
-      <c r="C261" s="23"/>
+      <c r="C261" s="13"/>
       <c r="D261" s="13"/>
       <c r="E261" s="14"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="33"/>
+      <c r="A262" s="34"/>
       <c r="B262" s="13"/>
-      <c r="C262" s="23"/>
+      <c r="C262" s="24"/>
       <c r="D262" s="13"/>
-      <c r="E262" s="21"/>
+      <c r="E262" s="22"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="33"/>
+      <c r="A263" s="34"/>
       <c r="B263" s="13"/>
-      <c r="C263" s="23"/>
+      <c r="C263" s="24"/>
       <c r="D263" s="13"/>
-      <c r="E263" s="21"/>
+      <c r="E263" s="22"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="33"/>
+      <c r="A264" s="34"/>
       <c r="B264" s="13"/>
-      <c r="C264" s="23"/>
+      <c r="C264" s="24"/>
       <c r="D264" s="13"/>
-      <c r="E264" s="21"/>
+      <c r="E264" s="14"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="33"/>
+      <c r="A265" s="34"/>
       <c r="B265" s="13"/>
-      <c r="C265" s="23"/>
+      <c r="C265" s="24"/>
       <c r="D265" s="13"/>
-      <c r="E265" s="14"/>
+      <c r="E265" s="22"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="33"/>
+      <c r="A266" s="34"/>
       <c r="B266" s="13"/>
-      <c r="C266" s="23"/>
+      <c r="C266" s="24"/>
       <c r="D266" s="13"/>
-      <c r="E266" s="21"/>
+      <c r="E266" s="22"/>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="33"/>
+      <c r="A267" s="34"/>
       <c r="B267" s="13"/>
-      <c r="C267" s="23"/>
+      <c r="C267" s="24"/>
       <c r="D267" s="13"/>
-      <c r="E267" s="21"/>
+      <c r="E267" s="14"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="12"/>
+      <c r="A268" s="34"/>
       <c r="B268" s="13"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="24"/>
       <c r="D268" s="13"/>
-      <c r="E268" s="14"/>
+      <c r="E268" s="35"/>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="8"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="13"/>
-      <c r="C269" s="13"/>
+      <c r="C269" s="24"/>
       <c r="D269" s="13"/>
-      <c r="E269" s="14"/>
+      <c r="E269" s="22"/>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="12"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="13"/>
-      <c r="C270" s="16"/>
+      <c r="C270" s="24"/>
       <c r="D270" s="13"/>
-      <c r="E270" s="21"/>
+      <c r="E270" s="22"/>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="12"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="13"/>
-      <c r="C271" s="16"/>
+      <c r="C271" s="24"/>
       <c r="D271" s="13"/>
-      <c r="E271" s="25"/>
+      <c r="E271" s="14"/>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="12"/>
+      <c r="A272" s="34"/>
       <c r="B272" s="13"/>
-      <c r="C272" s="16"/>
+      <c r="C272" s="24"/>
       <c r="D272" s="13"/>
       <c r="E272" s="14"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="12"/>
+      <c r="A273" s="34"/>
       <c r="B273" s="13"/>
-      <c r="C273" s="16"/>
+      <c r="C273" s="24"/>
       <c r="D273" s="13"/>
-      <c r="E273" s="14"/>
+      <c r="E273" s="22"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="12"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="13"/>
-      <c r="C274" s="23"/>
+      <c r="C274" s="24"/>
       <c r="D274" s="13"/>
-      <c r="E274" s="14"/>
+      <c r="E274" s="22"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="12"/>
-      <c r="B275" s="24"/>
-      <c r="C275" s="23"/>
+      <c r="A275" s="34"/>
+      <c r="B275" s="13"/>
+      <c r="C275" s="24"/>
       <c r="D275" s="13"/>
-      <c r="E275" s="25"/>
+      <c r="E275" s="14"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="12"/>
-      <c r="B276" s="24"/>
-      <c r="C276" s="23"/>
+      <c r="A276" s="34"/>
+      <c r="B276" s="13"/>
+      <c r="C276" s="24"/>
       <c r="D276" s="13"/>
-      <c r="E276" s="25"/>
+      <c r="E276" s="14"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="12"/>
+      <c r="A277" s="34"/>
       <c r="B277" s="13"/>
-      <c r="C277" s="13"/>
+      <c r="C277" s="24"/>
       <c r="D277" s="13"/>
-      <c r="E277" s="14"/>
+      <c r="E277" s="22"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="12"/>
+      <c r="A278" s="34"/>
       <c r="B278" s="13"/>
-      <c r="C278" s="13"/>
+      <c r="C278" s="24"/>
       <c r="D278" s="13"/>
-      <c r="E278" s="14"/>
+      <c r="E278" s="22"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="12"/>
+      <c r="A279" s="34"/>
       <c r="B279" s="13"/>
-      <c r="C279" s="13"/>
+      <c r="C279" s="24"/>
       <c r="D279" s="13"/>
       <c r="E279" s="14"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="12"/>
+      <c r="A280" s="34"/>
       <c r="B280" s="13"/>
-      <c r="C280" s="13"/>
+      <c r="C280" s="24"/>
       <c r="D280" s="13"/>
       <c r="E280" s="14"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="12"/>
+      <c r="A281" s="33"/>
       <c r="B281" s="13"/>
-      <c r="C281" s="13"/>
+      <c r="C281" s="24"/>
       <c r="D281" s="13"/>
       <c r="E281" s="14"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="12"/>
+      <c r="A282" s="34"/>
       <c r="B282" s="13"/>
-      <c r="C282" s="13"/>
+      <c r="C282" s="24"/>
       <c r="D282" s="13"/>
       <c r="E282" s="14"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="12"/>
+      <c r="A283" s="34"/>
       <c r="B283" s="13"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="24"/>
       <c r="D283" s="13"/>
-      <c r="E283" s="14"/>
+      <c r="E283" s="22"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="12"/>
+      <c r="A284" s="34"/>
       <c r="B284" s="13"/>
-      <c r="C284" s="13"/>
+      <c r="C284" s="24"/>
       <c r="D284" s="13"/>
-      <c r="E284" s="14"/>
+      <c r="E284" s="22"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="12"/>
+      <c r="A285" s="34"/>
       <c r="B285" s="13"/>
-      <c r="C285" s="13"/>
+      <c r="C285" s="24"/>
       <c r="D285" s="13"/>
-      <c r="E285" s="14"/>
+      <c r="E285" s="22"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="12"/>
+      <c r="A286" s="34"/>
       <c r="B286" s="13"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="24"/>
       <c r="D286" s="13"/>
       <c r="E286" s="14"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="12"/>
+      <c r="A287" s="34"/>
       <c r="B287" s="13"/>
-      <c r="C287" s="13"/>
+      <c r="C287" s="24"/>
       <c r="D287" s="13"/>
-      <c r="E287" s="14"/>
+      <c r="E287" s="22"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="12"/>
+      <c r="A288" s="34"/>
       <c r="B288" s="13"/>
-      <c r="C288" s="13"/>
+      <c r="C288" s="24"/>
       <c r="D288" s="13"/>
-      <c r="E288" s="14"/>
+      <c r="E288" s="22"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="12"/>
+      <c r="A289" s="34"/>
       <c r="B289" s="13"/>
-      <c r="C289" s="13"/>
+      <c r="C289" s="24"/>
       <c r="D289" s="13"/>
-      <c r="E289" s="14"/>
+      <c r="E289" s="22"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="12"/>
+      <c r="A290" s="34"/>
       <c r="B290" s="13"/>
-      <c r="C290" s="13"/>
+      <c r="C290" s="24"/>
       <c r="D290" s="13"/>
       <c r="E290" s="14"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="12"/>
+      <c r="A291" s="34"/>
       <c r="B291" s="13"/>
-      <c r="C291" s="13"/>
+      <c r="C291" s="24"/>
       <c r="D291" s="13"/>
-      <c r="E291" s="14"/>
+      <c r="E291" s="22"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="12"/>
+      <c r="A292" s="34"/>
       <c r="B292" s="13"/>
-      <c r="C292" s="13"/>
+      <c r="C292" s="24"/>
       <c r="D292" s="13"/>
-      <c r="E292" s="14"/>
+      <c r="E292" s="22"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="12"/>
@@ -3448,7 +4117,7 @@
       <c r="E293" s="14"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="12"/>
+      <c r="A294" s="8"/>
       <c r="B294" s="13"/>
       <c r="C294" s="13"/>
       <c r="D294" s="13"/>
@@ -3457,51 +4126,51 @@
     <row r="295" spans="1:5">
       <c r="A295" s="12"/>
       <c r="B295" s="13"/>
-      <c r="C295" s="13"/>
+      <c r="C295" s="17"/>
       <c r="D295" s="13"/>
-      <c r="E295" s="14"/>
+      <c r="E295" s="22"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="12"/>
       <c r="B296" s="13"/>
-      <c r="C296" s="13"/>
+      <c r="C296" s="17"/>
       <c r="D296" s="13"/>
-      <c r="E296" s="14"/>
+      <c r="E296" s="26"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="12"/>
       <c r="B297" s="13"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="17"/>
       <c r="D297" s="13"/>
       <c r="E297" s="14"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="12"/>
       <c r="B298" s="13"/>
-      <c r="C298" s="13"/>
+      <c r="C298" s="17"/>
       <c r="D298" s="13"/>
       <c r="E298" s="14"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="12"/>
       <c r="B299" s="13"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="24"/>
       <c r="D299" s="13"/>
       <c r="E299" s="14"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="12"/>
-      <c r="B300" s="13"/>
-      <c r="C300" s="13"/>
+      <c r="B300" s="25"/>
+      <c r="C300" s="24"/>
       <c r="D300" s="13"/>
-      <c r="E300" s="14"/>
+      <c r="E300" s="26"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="12"/>
-      <c r="B301" s="13"/>
-      <c r="C301" s="13"/>
+      <c r="B301" s="25"/>
+      <c r="C301" s="24"/>
       <c r="D301" s="13"/>
-      <c r="E301" s="14"/>
+      <c r="E301" s="26"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="12"/>
@@ -9390,17 +10059,213 @@
       <c r="D1142" s="13"/>
       <c r="E1142" s="14"/>
     </row>
+    <row r="1143" spans="1:5">
+      <c r="A1143" s="12"/>
+      <c r="B1143" s="13"/>
+      <c r="C1143" s="13"/>
+      <c r="D1143" s="13"/>
+      <c r="E1143" s="14"/>
+    </row>
+    <row r="1144" spans="1:5">
+      <c r="A1144" s="12"/>
+      <c r="B1144" s="13"/>
+      <c r="C1144" s="13"/>
+      <c r="D1144" s="13"/>
+      <c r="E1144" s="14"/>
+    </row>
+    <row r="1145" spans="1:5">
+      <c r="A1145" s="12"/>
+      <c r="B1145" s="13"/>
+      <c r="C1145" s="13"/>
+      <c r="D1145" s="13"/>
+      <c r="E1145" s="14"/>
+    </row>
+    <row r="1146" spans="1:5">
+      <c r="A1146" s="12"/>
+      <c r="B1146" s="13"/>
+      <c r="C1146" s="13"/>
+      <c r="D1146" s="13"/>
+      <c r="E1146" s="14"/>
+    </row>
+    <row r="1147" spans="1:5">
+      <c r="A1147" s="12"/>
+      <c r="B1147" s="13"/>
+      <c r="C1147" s="13"/>
+      <c r="D1147" s="13"/>
+      <c r="E1147" s="14"/>
+    </row>
+    <row r="1148" spans="1:5">
+      <c r="A1148" s="12"/>
+      <c r="B1148" s="13"/>
+      <c r="C1148" s="13"/>
+      <c r="D1148" s="13"/>
+      <c r="E1148" s="14"/>
+    </row>
+    <row r="1149" spans="1:5">
+      <c r="A1149" s="12"/>
+      <c r="B1149" s="13"/>
+      <c r="C1149" s="13"/>
+      <c r="D1149" s="13"/>
+      <c r="E1149" s="14"/>
+    </row>
+    <row r="1150" spans="1:5">
+      <c r="A1150" s="12"/>
+      <c r="B1150" s="13"/>
+      <c r="C1150" s="13"/>
+      <c r="D1150" s="13"/>
+      <c r="E1150" s="14"/>
+    </row>
+    <row r="1151" spans="1:5">
+      <c r="A1151" s="12"/>
+      <c r="B1151" s="13"/>
+      <c r="C1151" s="13"/>
+      <c r="D1151" s="13"/>
+      <c r="E1151" s="14"/>
+    </row>
+    <row r="1152" spans="1:5">
+      <c r="A1152" s="12"/>
+      <c r="B1152" s="13"/>
+      <c r="C1152" s="13"/>
+      <c r="D1152" s="13"/>
+      <c r="E1152" s="14"/>
+    </row>
+    <row r="1153" spans="1:5">
+      <c r="A1153" s="12"/>
+      <c r="B1153" s="13"/>
+      <c r="C1153" s="13"/>
+      <c r="D1153" s="13"/>
+      <c r="E1153" s="14"/>
+    </row>
+    <row r="1154" spans="1:5">
+      <c r="A1154" s="12"/>
+      <c r="B1154" s="13"/>
+      <c r="C1154" s="13"/>
+      <c r="D1154" s="13"/>
+      <c r="E1154" s="14"/>
+    </row>
+    <row r="1155" spans="1:5">
+      <c r="A1155" s="12"/>
+      <c r="B1155" s="13"/>
+      <c r="C1155" s="13"/>
+      <c r="D1155" s="13"/>
+      <c r="E1155" s="14"/>
+    </row>
+    <row r="1156" spans="1:5">
+      <c r="A1156" s="12"/>
+      <c r="B1156" s="13"/>
+      <c r="C1156" s="13"/>
+      <c r="D1156" s="13"/>
+      <c r="E1156" s="14"/>
+    </row>
+    <row r="1157" spans="1:5">
+      <c r="A1157" s="12"/>
+      <c r="B1157" s="13"/>
+      <c r="C1157" s="13"/>
+      <c r="D1157" s="13"/>
+      <c r="E1157" s="14"/>
+    </row>
+    <row r="1158" spans="1:5">
+      <c r="A1158" s="12"/>
+      <c r="B1158" s="13"/>
+      <c r="C1158" s="13"/>
+      <c r="D1158" s="13"/>
+      <c r="E1158" s="14"/>
+    </row>
+    <row r="1159" spans="1:5">
+      <c r="A1159" s="12"/>
+      <c r="B1159" s="13"/>
+      <c r="C1159" s="13"/>
+      <c r="D1159" s="13"/>
+      <c r="E1159" s="14"/>
+    </row>
+    <row r="1160" spans="1:5">
+      <c r="A1160" s="12"/>
+      <c r="B1160" s="13"/>
+      <c r="C1160" s="13"/>
+      <c r="D1160" s="13"/>
+      <c r="E1160" s="14"/>
+    </row>
+    <row r="1161" spans="1:5">
+      <c r="A1161" s="12"/>
+      <c r="B1161" s="13"/>
+      <c r="C1161" s="13"/>
+      <c r="D1161" s="13"/>
+      <c r="E1161" s="14"/>
+    </row>
+    <row r="1162" spans="1:5">
+      <c r="A1162" s="12"/>
+      <c r="B1162" s="13"/>
+      <c r="C1162" s="13"/>
+      <c r="D1162" s="13"/>
+      <c r="E1162" s="14"/>
+    </row>
+    <row r="1163" spans="1:5">
+      <c r="A1163" s="12"/>
+      <c r="B1163" s="13"/>
+      <c r="C1163" s="13"/>
+      <c r="D1163" s="13"/>
+      <c r="E1163" s="14"/>
+    </row>
+    <row r="1164" spans="1:5">
+      <c r="A1164" s="12"/>
+      <c r="B1164" s="13"/>
+      <c r="C1164" s="13"/>
+      <c r="D1164" s="13"/>
+      <c r="E1164" s="14"/>
+    </row>
+    <row r="1165" spans="1:5">
+      <c r="A1165" s="12"/>
+      <c r="B1165" s="13"/>
+      <c r="C1165" s="13"/>
+      <c r="D1165" s="13"/>
+      <c r="E1165" s="14"/>
+    </row>
+    <row r="1166" spans="1:5">
+      <c r="A1166" s="12"/>
+      <c r="B1166" s="13"/>
+      <c r="C1166" s="13"/>
+      <c r="D1166" s="13"/>
+      <c r="E1166" s="14"/>
+    </row>
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="12"/>
+      <c r="B1167" s="13"/>
+      <c r="C1167" s="13"/>
+      <c r="D1167" s="13"/>
+      <c r="E1167" s="14"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C5" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C6" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C7" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C8" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C10" r:id="rId2" display="http://www.beijingipo.com.cn/api/v1.0/sso/user/update" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/user/update"/>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/login"/>
-    <hyperlink ref="C9" r:id="rId2" display="http://www.beijingipo.com.cn/api/v1.0/sso/user/update" tooltip="http://www.beijingipo.com.cn/api/v1.0/sso/user/update"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C35" r:id="rId2" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/update" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/update"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C34" r:id="rId2" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/update" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/update"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/login" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/login"/>
+    <hyperlink ref="C11" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C12" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C13" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C10" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C14" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C15" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C16" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C17" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C18" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C19" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C20" r:id="rId4" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/password/forget"/>
+    <hyperlink ref="C21" r:id="rId4" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/password/forget"/>
+    <hyperlink ref="C22" r:id="rId4" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/password/forget"/>
+    <hyperlink ref="C23" r:id="rId4" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/password/forget" tooltip="http://www.test.beijingipo.com.cn/api/v1.0/sso/user/password/forget"/>
+    <hyperlink ref="C24" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C25" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.0/sso/register"/>
+    <hyperlink ref="C26" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.1/sso/register"/>
+    <hyperlink ref="C27" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.1/sso/register"/>
+    <hyperlink ref="C28" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.1/sso/register"/>
+    <hyperlink ref="C29" r:id="rId3" display="http://www.test.beijingipo.com.cn/api/v1.1/sso/register"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ApiAutoTest/automationApiTestCaseData.xlsx
+++ b/ApiAutoTest/automationApiTestCaseData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28635" windowHeight="11370" activeTab="2"/>
+    <workbookView windowWidth="28635" windowHeight="11370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -563,10 +563,10 @@
     <t>http://www.test.beijingipo.com.cn/api/v1.0/sso/user/update</t>
   </si>
   <si>
-    <t>修改账户信息-公司名已存在</t>
+    <t>个人中心-修改账户信息-公司名已存在</t>
   </si>
   <si>
-    <t>{"code": "91110108551385082A","creditCode": "91110108551385082Q","email": "change@qq.com","organization": "小小米科技有限责任公司","realName": "小雷布斯"}</t>
+    <t>{"code": "91110108551385082A","creditCode": "91110108551385082Q","email": "change@qq.com","organization": "小米科技有限责任公司","realName": "小雷布斯"}</t>
   </si>
   <si>
     <t>{"success":False,"statusCode":2000,"message":"公司名称已存在","data":None}</t>
@@ -579,8 +579,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -630,12 +630,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -643,16 +690,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,7 +729,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,55 +737,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,19 +751,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -810,7 +810,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +900,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,19 +930,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,7 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,127 +984,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,11 +1056,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1082,39 +1136,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1124,32 +1145,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,10 +1159,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1171,16 +1171,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1189,115 +1189,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -17600,8 +17600,8 @@
   <sheetPr/>
   <dimension ref="A1:E1117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -33660,8 +33660,8 @@
   <sheetPr/>
   <dimension ref="A1:E1135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
